--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="270">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -431,6 +431,405 @@
   </si>
   <si>
     <t xml:space="preserve">Center Rabat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kan</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ವರ್ಚುವಲ್ ಸೆಂಟರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ವರ್ಚುವಲ್ ವಿಳಾಸ 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ವರ್ಚುವಲ್ ವಿಳಾಸ 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ನನ್ನ ದೇಶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸೆಂಟರ್ ಎ ಬೆನ್ ಮನ್ಸೂರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಬೆನ್ ಮನ್ಸೂರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಗ್ರಾಮೀಣ ಪುರಸಭೆ ಮ್ನಾಸ್ರಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮಾರ್ಗ ಡಿ ಮೌಲೆ ಬೌಸೆಲ್‌ಹ್ಯಾಮ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಡೌರ್ ಸ್ಬಿಹ್ ಮೆನಾಸೆರಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೌಕ್ ಖೆಮಿಸ್ ಮೊಗ್ರಾನ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಮಾರ್ಗ N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಮೈಗ್ರೇನ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಕೇಂದ್ರ ಅಸ್ಸಾಂ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 ಕಿಮೀ ಟ್ಯಾಂಜಿಯರ್ ರಸ್ತೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಕೆನಿತ್ರಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸೆಂಟರ್ ಮೆಹದಿಯಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮೆಹದಿಯಾ ರಸ್ತೆ ಅಮ್ರಿಯಾ ಮೆಹದಿಯಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಮರೋಕ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸೆಂಟರ್ Ouled Oujih</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಬ್ಲಾಕ್ 1 G1 N113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೇಂದ್ರ ಸಿಡಿ ತೈಬಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ರಬತ್ ರಸ್ತೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸಿಡಿ ತೈಬಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ನನ್ನ ದೇಶ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸೆಂಟರ್ ಸಿಡಿ ಅಲ್ಲಲ್ ತಾಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ರಾಷ್ಟ್ರೀಯ ರಸ್ತೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಅಲ್ಲಾ ತಾಜಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಕೇಂದ್ರ ಅಗ್ಡಾಲ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಫ್ರೆಂಚ್ ಅವೆನ್ಯೂ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ರಬತ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಕೇಂದ್ರ ಹಾಸನ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅವೆನ್ಯೂ ಅಮೀರ್ ಮೌಲೆ ಅಬ್ದುಲ್ಲಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸೆಂಟರ್ ಸೌಸಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸೆಂಟರ್ ಮದೀನತ್ ಅಲ್ ಇರ್ಫಾನೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಅವೆನ್ಯೂ ಅಲ್ಲಲ್ ಅಲ್ ಫಾಸ್ಸಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸೆಂಟರ್ ಹೇ ರಿಯಾಡ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಅವೆನ್ಯೂ ಅಲ್ ಅರಾರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸೆಂಟರ್ ಮದೀನಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಕಾನ್ಸುಲ್‌ಗಳ ಬೀದಿ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಸೆಂಟರ್ ಯೂಸೌಫಿಯಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಅವೆನ್ಯೂ ಔಜ್ಗುಯಿಟಾ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಕೇಂದ್ರ ರಬತ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ಬೆನ್ ಮನ್ಸೂರ್</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> आभासी केंद्र</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> आभासी पता 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">आभासी पता 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मेरा देश</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> सेंटर ए बेन मंसूर</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> बेन मंसूर</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ग्रामीण नगर मनसराय</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रूट डी मौले बौसेलहैम</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> डौर सबिह मेनसेरा</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सूक खेमिस मोग्रेन</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मार्ग N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> माइग्रेन</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र असम</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 किमी टंगेर रोड</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केनिट्रा</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र मेहदिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मेहदिया रोड अमरिया मेहदिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मारोसी</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र औलेड औजिहो</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ब्लॉक 1 G1 N113</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केनिट्रा</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र सिदी ताइबिक</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> रबत रोड</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> सिदी ताइबि</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> मेरा देश</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र सिदी अल्लाल ताज़िक</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> राष्ट्रीय सड़क</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> अल्ला ताज़िक</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र Agdal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> फ्रेंच एवेन्यू</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> रबात</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र हसन</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> एवेन्यू अमीर मौले अब्देलाह</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र सूसी</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> एवेन्यू मोहम्मद VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र मदीनत अल इरफान</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> एवेन्यू अल्लाल अल फसी</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केंद्र हे Riad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> एवेन्यू अल अरारी</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र मदीना</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> कौंसल की सड़क</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र युसूफिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> एवेन्यू औजगुइटा</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> केंद्र रबातो</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மெய்நிகர் மையம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மெய்நிகர் முகவரி 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மெய்நிகர் முகவரி 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> என் நாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சென்டர் ஏ பென் மன்சூர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பென் மன்சூர்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">கிராமப்புற முனிசிபல் மனாஸ்ரா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">பாதை டி மௌலே பௌசல்ஹாம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> பாதை N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ஒற்றைத் தலைவலி</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> அசாம் மையம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7 கிமீ டேன்ஜியர் சாலை</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> கெனிட்ரா </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மையம் மெஹதியா</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மெஹ்தியா சாலை அம்ரியா மெஹதியா</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மரோக்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மையம் Ouled Oujih</t>
+  </si>
+  <si>
+    <t xml:space="preserve">தொகுதி 1 G1 N113</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> கெனிட்ரா</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மையம் சிடி தைபி</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ரபாத் சாலை</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> சிடி தைபி</t>
+  </si>
+  <si>
+    <t xml:space="preserve">என் நாடு</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மையம் சிடி அல்லல் தாஜி</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> தேசிய சாலை</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> அல்லா தாசி</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மையம் அக்டல்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> பிரஞ்சு அவென்யூ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ரபாத்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மையம் ஹாசன்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அவென்யூ அமீர் மௌலே அப்தெல்லா</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மையம் Souissi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> அவென்யூ முகமது VI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">மதீனத் அல் இர்ஃபேன் மையம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அவென்யூ அல்லால் அல் ஃபாஸி</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மையம் ஹே ரியாட்</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அவென்யூ அல் அரார்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மதீனா மையம்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> தூதரகத்தின் தெரு</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மையம் யூசுஃபியா</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> அவென்யூ Ouzguita</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> மையம் ரபாத்</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> பென் மன்சூர்</t>
   </si>
 </sst>
 </file>
@@ -521,7 +920,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -550,6 +949,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +970,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:X35"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M7" activeCellId="0" sqref="M7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L86" activeCellId="0" sqref="L86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -580,7 +983,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="29.22"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.12"/>
@@ -589,7 +992,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="17.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="17.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="14.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="22.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="17.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="17" style="0" width="16.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="0" width="15.61"/>
@@ -3186,10 +3589,3778 @@
         <v>41</v>
       </c>
     </row>
+    <row r="36" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P36" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R36" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S36" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T36" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U36" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V36" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X36" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>34.52117</v>
+      </c>
+      <c r="I37" s="5" t="n">
+        <v>-6.453275</v>
+      </c>
+      <c r="J37" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K37" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M37" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q37" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S37" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T37" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U37" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V37" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X37" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B38" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>34.360207</v>
+      </c>
+      <c r="I38" s="5" t="n">
+        <v>-6.550075</v>
+      </c>
+      <c r="J38" s="6" t="n">
+        <v>14053</v>
+      </c>
+      <c r="K38" s="5" t="n">
+        <v>753476995</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W38" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>34.405692</v>
+      </c>
+      <c r="I39" s="5" t="n">
+        <v>-6.433368</v>
+      </c>
+      <c r="J39" s="6" t="n">
+        <v>14023</v>
+      </c>
+      <c r="K39" s="5" t="n">
+        <v>734239083</v>
+      </c>
+      <c r="L39" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M39" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O39" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P39" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S39" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U39" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V39" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X39" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B40" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>34.287879</v>
+      </c>
+      <c r="I40" s="5" t="n">
+        <v>-6.516428</v>
+      </c>
+      <c r="J40" s="6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K40" s="5" t="n">
+        <v>937997757</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M40" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N40" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T40" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V40" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W40" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X40" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B41" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>34.256414</v>
+      </c>
+      <c r="I41" s="5" t="n">
+        <v>-6.675499</v>
+      </c>
+      <c r="J41" s="6" t="n">
+        <v>14110</v>
+      </c>
+      <c r="K41" s="5" t="n">
+        <v>887311749</v>
+      </c>
+      <c r="L41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M41" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P41" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R41" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S41" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T41" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U41" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W41" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X41" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B42" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>34.262477</v>
+      </c>
+      <c r="I42" s="5" t="n">
+        <v>-6.618605</v>
+      </c>
+      <c r="J42" s="6" t="n">
+        <v>14080</v>
+      </c>
+      <c r="K42" s="5" t="n">
+        <v>915790305</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T42" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X42" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>34.192861</v>
+      </c>
+      <c r="I43" s="5" t="n">
+        <v>-6.683662</v>
+      </c>
+      <c r="J43" s="6" t="n">
+        <v>14025</v>
+      </c>
+      <c r="K43" s="5" t="n">
+        <v>811552880</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M43" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O43" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P43" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q43" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R43" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S43" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T43" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U43" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V43" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W43" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X43" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>34.522414</v>
+      </c>
+      <c r="I44" s="5" t="n">
+        <v>-6.320471</v>
+      </c>
+      <c r="J44" s="6" t="n">
+        <v>14050</v>
+      </c>
+      <c r="K44" s="5" t="n">
+        <v>695325692</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M44" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P44" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q44" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R44" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S44" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V44" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X44" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B45" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>33.998232</v>
+      </c>
+      <c r="I45" s="5" t="n">
+        <v>-6.845728</v>
+      </c>
+      <c r="J45" s="6" t="n">
+        <v>10106</v>
+      </c>
+      <c r="K45" s="5" t="n">
+        <v>745360421</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M45" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S45" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T45" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U45" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V45" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X45" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>34.017502</v>
+      </c>
+      <c r="I46" s="5" t="n">
+        <v>-6.834745</v>
+      </c>
+      <c r="J46" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K46" s="5" t="n">
+        <v>766074745</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M46" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>33.986608</v>
+      </c>
+      <c r="I47" s="5" t="n">
+        <v>-6.828873</v>
+      </c>
+      <c r="J47" s="6" t="n">
+        <v>10105</v>
+      </c>
+      <c r="K47" s="5" t="n">
+        <v>787248921</v>
+      </c>
+      <c r="L47" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M47" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O47" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P47" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q47" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R47" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S47" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T47" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U47" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V47" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X47" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B48" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>33.978103</v>
+      </c>
+      <c r="I48" s="5" t="n">
+        <v>-6.867849</v>
+      </c>
+      <c r="J48" s="6" t="n">
+        <v>10112</v>
+      </c>
+      <c r="K48" s="5" t="n">
+        <v>838412388</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M48" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B49" s="1" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>33.953931</v>
+      </c>
+      <c r="I49" s="5" t="n">
+        <v>-6.874735</v>
+      </c>
+      <c r="J49" s="6" t="n">
+        <v>10104</v>
+      </c>
+      <c r="K49" s="5" t="n">
+        <v>751913644</v>
+      </c>
+      <c r="L49" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M49" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N49" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P49" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q49" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R49" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S49" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T49" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U49" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V49" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X49" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="1" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>34.027757</v>
+      </c>
+      <c r="I50" s="5" t="n">
+        <v>-6.834147</v>
+      </c>
+      <c r="J50" s="6" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K50" s="5" t="n">
+        <v>965639376</v>
+      </c>
+      <c r="L50" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M50" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P50" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q50" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R50" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S50" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T50" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U50" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W50" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X50" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B51" s="1" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>33.995612</v>
+      </c>
+      <c r="I51" s="5" t="n">
+        <v>-6.815281</v>
+      </c>
+      <c r="J51" s="6" t="n">
+        <v>10190</v>
+      </c>
+      <c r="K51" s="5" t="n">
+        <v>803062069</v>
+      </c>
+      <c r="L51" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M51" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N51" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P51" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q51" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R51" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S51" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T51" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U51" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V51" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X51" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="1" t="n">
+        <v>33333</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>33.52117</v>
+      </c>
+      <c r="I52" s="5" t="n">
+        <v>-5.453275</v>
+      </c>
+      <c r="J52" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K52" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L52" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M52" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N52" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O52" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P52" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q52" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R52" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S52" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T52" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V52" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W52" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X52" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X53" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B54" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>34.52117</v>
+      </c>
+      <c r="I54" s="5" t="n">
+        <v>-6.453275</v>
+      </c>
+      <c r="J54" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K54" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L54" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M54" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W54" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X54" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B55" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>34.360207</v>
+      </c>
+      <c r="I55" s="5" t="n">
+        <v>-6.550075</v>
+      </c>
+      <c r="J55" s="6" t="n">
+        <v>14053</v>
+      </c>
+      <c r="K55" s="5" t="n">
+        <v>753476995</v>
+      </c>
+      <c r="L55" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N55" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W55" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X55" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>34.405692</v>
+      </c>
+      <c r="I56" s="5" t="n">
+        <v>-6.433368</v>
+      </c>
+      <c r="J56" s="6" t="n">
+        <v>14023</v>
+      </c>
+      <c r="K56" s="5" t="n">
+        <v>734239083</v>
+      </c>
+      <c r="L56" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M56" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O56" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X56" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B57" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <v>34.287879</v>
+      </c>
+      <c r="I57" s="5" t="n">
+        <v>-6.516428</v>
+      </c>
+      <c r="J57" s="6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K57" s="5" t="n">
+        <v>937997757</v>
+      </c>
+      <c r="L57" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M57" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O57" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W57" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X57" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>34.256414</v>
+      </c>
+      <c r="I58" s="5" t="n">
+        <v>-6.675499</v>
+      </c>
+      <c r="J58" s="6" t="n">
+        <v>14110</v>
+      </c>
+      <c r="K58" s="5" t="n">
+        <v>887311749</v>
+      </c>
+      <c r="L58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M58" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W58" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X58" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B59" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="D59" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>34.262477</v>
+      </c>
+      <c r="I59" s="5" t="n">
+        <v>-6.618605</v>
+      </c>
+      <c r="J59" s="6" t="n">
+        <v>14080</v>
+      </c>
+      <c r="K59" s="5" t="n">
+        <v>915790305</v>
+      </c>
+      <c r="L59" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M59" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W59" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X59" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B60" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>34.192861</v>
+      </c>
+      <c r="I60" s="5" t="n">
+        <v>-6.683662</v>
+      </c>
+      <c r="J60" s="6" t="n">
+        <v>14025</v>
+      </c>
+      <c r="K60" s="5" t="n">
+        <v>811552880</v>
+      </c>
+      <c r="L60" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M60" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N60" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O60" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X60" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H61" s="5" t="n">
+        <v>34.522414</v>
+      </c>
+      <c r="I61" s="5" t="n">
+        <v>-6.320471</v>
+      </c>
+      <c r="J61" s="6" t="n">
+        <v>14050</v>
+      </c>
+      <c r="K61" s="5" t="n">
+        <v>695325692</v>
+      </c>
+      <c r="L61" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M61" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W61" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X61" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>33.998232</v>
+      </c>
+      <c r="I62" s="5" t="n">
+        <v>-6.845728</v>
+      </c>
+      <c r="J62" s="6" t="n">
+        <v>10106</v>
+      </c>
+      <c r="K62" s="5" t="n">
+        <v>745360421</v>
+      </c>
+      <c r="L62" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M62" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N62" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O62" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W62" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X62" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>34.017502</v>
+      </c>
+      <c r="I63" s="5" t="n">
+        <v>-6.834745</v>
+      </c>
+      <c r="J63" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K63" s="5" t="n">
+        <v>766074745</v>
+      </c>
+      <c r="L63" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M63" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O63" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W63" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X63" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B64" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>33.986608</v>
+      </c>
+      <c r="I64" s="5" t="n">
+        <v>-6.828873</v>
+      </c>
+      <c r="J64" s="6" t="n">
+        <v>10105</v>
+      </c>
+      <c r="K64" s="5" t="n">
+        <v>787248921</v>
+      </c>
+      <c r="L64" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M64" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N64" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W64" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X64" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B65" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="D65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>33.978103</v>
+      </c>
+      <c r="I65" s="5" t="n">
+        <v>-6.867849</v>
+      </c>
+      <c r="J65" s="6" t="n">
+        <v>10112</v>
+      </c>
+      <c r="K65" s="5" t="n">
+        <v>838412388</v>
+      </c>
+      <c r="L65" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M65" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W65" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X65" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B66" s="1" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>33.953931</v>
+      </c>
+      <c r="I66" s="5" t="n">
+        <v>-6.874735</v>
+      </c>
+      <c r="J66" s="6" t="n">
+        <v>10104</v>
+      </c>
+      <c r="K66" s="5" t="n">
+        <v>751913644</v>
+      </c>
+      <c r="L66" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M66" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N66" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W66" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X66" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B67" s="1" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>34.027757</v>
+      </c>
+      <c r="I67" s="5" t="n">
+        <v>-6.834147</v>
+      </c>
+      <c r="J67" s="6" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K67" s="5" t="n">
+        <v>965639376</v>
+      </c>
+      <c r="L67" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M67" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N67" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W67" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X67" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B68" s="1" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>33.995612</v>
+      </c>
+      <c r="I68" s="5" t="n">
+        <v>-6.815281</v>
+      </c>
+      <c r="J68" s="6" t="n">
+        <v>10190</v>
+      </c>
+      <c r="K68" s="5" t="n">
+        <v>803062069</v>
+      </c>
+      <c r="L68" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M68" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O68" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X68" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B69" s="1" t="n">
+        <v>33333</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>33.52117</v>
+      </c>
+      <c r="I69" s="5" t="n">
+        <v>-5.453275</v>
+      </c>
+      <c r="J69" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K69" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L69" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M69" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O69" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U69" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W69" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X69" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" s="5"/>
+      <c r="M70" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X70" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B71" s="1" t="n">
+        <v>10001</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>34.52117</v>
+      </c>
+      <c r="I71" s="5" t="n">
+        <v>-6.453275</v>
+      </c>
+      <c r="J71" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K71" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L71" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M71" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O71" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U71" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W71" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X71" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="1" t="n">
+        <v>10002</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>34.360207</v>
+      </c>
+      <c r="I72" s="5" t="n">
+        <v>-6.550075</v>
+      </c>
+      <c r="J72" s="6" t="n">
+        <v>14053</v>
+      </c>
+      <c r="K72" s="5" t="n">
+        <v>753476995</v>
+      </c>
+      <c r="L72" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M72" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N72" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O72" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="W72" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X72" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B73" s="1" t="n">
+        <v>10003</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>34.405692</v>
+      </c>
+      <c r="I73" s="5" t="n">
+        <v>-6.433368</v>
+      </c>
+      <c r="J73" s="6" t="n">
+        <v>14023</v>
+      </c>
+      <c r="K73" s="5" t="n">
+        <v>734239083</v>
+      </c>
+      <c r="L73" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="M73" s="5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U73" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="W73" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X73" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B74" s="1" t="n">
+        <v>10004</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="H74" s="5" t="n">
+        <v>34.287879</v>
+      </c>
+      <c r="I74" s="5" t="n">
+        <v>-6.516428</v>
+      </c>
+      <c r="J74" s="6" t="n">
+        <v>14000</v>
+      </c>
+      <c r="K74" s="5" t="n">
+        <v>937997757</v>
+      </c>
+      <c r="L74" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="M74" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N74" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W74" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X74" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B75" s="1" t="n">
+        <v>10005</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H75" s="5" t="n">
+        <v>34.256414</v>
+      </c>
+      <c r="I75" s="5" t="n">
+        <v>-6.675499</v>
+      </c>
+      <c r="J75" s="6" t="n">
+        <v>14110</v>
+      </c>
+      <c r="K75" s="5" t="n">
+        <v>887311749</v>
+      </c>
+      <c r="L75" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M75" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N75" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O75" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V75" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="W75" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X75" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B76" s="1" t="n">
+        <v>10006</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="H76" s="5" t="n">
+        <v>34.262477</v>
+      </c>
+      <c r="I76" s="5" t="n">
+        <v>-6.618605</v>
+      </c>
+      <c r="J76" s="6" t="n">
+        <v>14080</v>
+      </c>
+      <c r="K76" s="5" t="n">
+        <v>915790305</v>
+      </c>
+      <c r="L76" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M76" s="5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="W76" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X76" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B77" s="1" t="n">
+        <v>10007</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="G77" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <v>34.192861</v>
+      </c>
+      <c r="I77" s="5" t="n">
+        <v>-6.683662</v>
+      </c>
+      <c r="J77" s="6" t="n">
+        <v>14025</v>
+      </c>
+      <c r="K77" s="5" t="n">
+        <v>811552880</v>
+      </c>
+      <c r="L77" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M77" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O77" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="W77" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X77" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B78" s="1" t="n">
+        <v>10008</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="G78" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H78" s="5" t="n">
+        <v>34.522414</v>
+      </c>
+      <c r="I78" s="5" t="n">
+        <v>-6.320471</v>
+      </c>
+      <c r="J78" s="6" t="n">
+        <v>14050</v>
+      </c>
+      <c r="K78" s="5" t="n">
+        <v>695325692</v>
+      </c>
+      <c r="L78" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M78" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N78" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X78" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="1" t="n">
+        <v>10009</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="D79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G79" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H79" s="5" t="n">
+        <v>33.998232</v>
+      </c>
+      <c r="I79" s="5" t="n">
+        <v>-6.845728</v>
+      </c>
+      <c r="J79" s="6" t="n">
+        <v>10106</v>
+      </c>
+      <c r="K79" s="5" t="n">
+        <v>745360421</v>
+      </c>
+      <c r="L79" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="M79" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V79" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W79" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X79" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A80" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B80" s="1" t="n">
+        <v>10010</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G80" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H80" s="5" t="n">
+        <v>34.017502</v>
+      </c>
+      <c r="I80" s="5" t="n">
+        <v>-6.834745</v>
+      </c>
+      <c r="J80" s="6" t="n">
+        <v>10000</v>
+      </c>
+      <c r="K80" s="5" t="n">
+        <v>766074745</v>
+      </c>
+      <c r="L80" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="M80" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N80" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O80" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X80" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" s="1" t="n">
+        <v>10011</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H81" s="5" t="n">
+        <v>33.986608</v>
+      </c>
+      <c r="I81" s="5" t="n">
+        <v>-6.828873</v>
+      </c>
+      <c r="J81" s="6" t="n">
+        <v>10105</v>
+      </c>
+      <c r="K81" s="5" t="n">
+        <v>787248921</v>
+      </c>
+      <c r="L81" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="M81" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O81" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P81" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q81" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R81" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S81" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T81" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U81" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V81" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W81" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X81" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B82" s="1" t="n">
+        <v>10012</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F82" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G82" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H82" s="5" t="n">
+        <v>33.978103</v>
+      </c>
+      <c r="I82" s="5" t="n">
+        <v>-6.867849</v>
+      </c>
+      <c r="J82" s="6" t="n">
+        <v>10112</v>
+      </c>
+      <c r="K82" s="5" t="n">
+        <v>838412388</v>
+      </c>
+      <c r="L82" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="M82" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O82" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P82" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q82" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R82" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S82" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T82" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U82" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V82" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="W82" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X82" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B83" s="1" t="n">
+        <v>10013</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G83" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H83" s="5" t="n">
+        <v>33.953931</v>
+      </c>
+      <c r="I83" s="5" t="n">
+        <v>-6.874735</v>
+      </c>
+      <c r="J83" s="6" t="n">
+        <v>10104</v>
+      </c>
+      <c r="K83" s="5" t="n">
+        <v>751913644</v>
+      </c>
+      <c r="L83" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="M83" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O83" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P83" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q83" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R83" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S83" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T83" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U83" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V83" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="W83" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X83" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B84" s="1" t="n">
+        <v>10014</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G84" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H84" s="5" t="n">
+        <v>34.027757</v>
+      </c>
+      <c r="I84" s="5" t="n">
+        <v>-6.834147</v>
+      </c>
+      <c r="J84" s="6" t="n">
+        <v>10036</v>
+      </c>
+      <c r="K84" s="5" t="n">
+        <v>965639376</v>
+      </c>
+      <c r="L84" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="M84" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O84" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P84" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q84" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S84" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T84" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U84" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V84" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="W84" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X84" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B85" s="1" t="n">
+        <v>10015</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="G85" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H85" s="5" t="n">
+        <v>33.995612</v>
+      </c>
+      <c r="I85" s="5" t="n">
+        <v>-6.815281</v>
+      </c>
+      <c r="J85" s="6" t="n">
+        <v>10190</v>
+      </c>
+      <c r="K85" s="5" t="n">
+        <v>803062069</v>
+      </c>
+      <c r="L85" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="M85" s="5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N85" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O85" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P85" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q85" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R85" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S85" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T85" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U85" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V85" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="W85" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X85" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="B86" s="1" t="n">
+        <v>33333</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="G86" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="H86" s="5" t="n">
+        <v>33.52117</v>
+      </c>
+      <c r="I86" s="5" t="n">
+        <v>-5.453275</v>
+      </c>
+      <c r="J86" s="6" t="n">
+        <v>14022</v>
+      </c>
+      <c r="K86" s="5" t="n">
+        <v>779517433</v>
+      </c>
+      <c r="L86" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="M86" s="5" t="n">
+        <v>12</v>
+      </c>
+      <c r="N86" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="O86" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="P86" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q86" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="R86" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="S86" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="T86" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="U86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="V86" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="W86" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X86" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1559" uniqueCount="264">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -439,13 +439,13 @@
     <t xml:space="preserve"> ವರ್ಚುವಲ್ ಸೆಂಟರ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ವರ್ಚುವಲ್ ವಿಳಾಸ 1</t>
+    <t xml:space="preserve">ವರ್ಚುವಲ್ ವಿಳಾಸ 1</t>
   </si>
   <si>
     <t xml:space="preserve">ವರ್ಚುವಲ್ ವಿಳಾಸ 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> ನನ್ನ ದೇಶ</t>
+    <t xml:space="preserve">ನನ್ನ ದೇಶ</t>
   </si>
   <si>
     <t xml:space="preserve"> ಸೆಂಟರ್ ಎ ಬೆನ್ ಮನ್ಸೂರ್</t>
@@ -460,25 +460,25 @@
     <t xml:space="preserve">ಮಾರ್ಗ ಡಿ ಮೌಲೆ ಬೌಸೆಲ್‌ಹ್ಯಾಮ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಡೌರ್ ಸ್ಬಿಹ್ ಮೆನಾಸೆರಾ</t>
+    <t xml:space="preserve">ಡೌರ್ ಸ್ಬಿಹ್ ಮೆನಾಸೆರಾ</t>
   </si>
   <si>
     <t xml:space="preserve">ಸೌಕ್ ಖೆಮಿಸ್ ಮೊಗ್ರಾನ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಮಾರ್ಗ N1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ಮೈಗ್ರೇನ್</t>
+    <t xml:space="preserve">ಮಾರ್ಗ N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಮೈಗ್ರೇನ್</t>
   </si>
   <si>
     <t xml:space="preserve"> ಕೇಂದ್ರ ಅಸ್ಸಾಂ</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7 ಕಿಮೀ ಟ್ಯಾಂಜಿಯರ್ ರಸ್ತೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ಕೆನಿತ್ರಾ</t>
+    <t xml:space="preserve">7 ಕಿಮೀ ಟ್ಯಾಂಜಿಯರ್ ರಸ್ತೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಕೆನಿತ್ರಾ</t>
   </si>
   <si>
     <t xml:space="preserve"> ಸೆಂಟರ್ ಮೆಹದಿಯಾ</t>
@@ -487,43 +487,40 @@
     <t xml:space="preserve">ಮೆಹದಿಯಾ ರಸ್ತೆ ಅಮ್ರಿಯಾ ಮೆಹದಿಯಾ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಮರೋಕ್</t>
+    <t xml:space="preserve">ಮರೋಕ್</t>
   </si>
   <si>
     <t xml:space="preserve"> ಸೆಂಟರ್ Ouled Oujih</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಬ್ಲಾಕ್ 1 G1 N113</t>
+    <t xml:space="preserve">ಬ್ಲಾಕ್ 1 G1 N113</t>
   </si>
   <si>
     <t xml:space="preserve">ಕೇಂದ್ರ ಸಿಡಿ ತೈಬಿ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ರಬತ್ ರಸ್ತೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ಸಿಡಿ ತೈಬಿ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ನನ್ನ ದೇಶ</t>
+    <t xml:space="preserve">ರಬತ್ ರಸ್ತೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಸಿಡಿ ತೈಬಿ</t>
   </si>
   <si>
     <t xml:space="preserve"> ಸೆಂಟರ್ ಸಿಡಿ ಅಲ್ಲಲ್ ತಾಜಿ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ರಾಷ್ಟ್ರೀಯ ರಸ್ತೆ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ಅಲ್ಲಾ ತಾಜಿ</t>
+    <t xml:space="preserve">ರಾಷ್ಟ್ರೀಯ ರಸ್ತೆ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ಅಲ್ಲಾ ತಾಜಿ</t>
   </si>
   <si>
     <t xml:space="preserve"> ಕೇಂದ್ರ ಅಗ್ಡಾಲ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಫ್ರೆಂಚ್ ಅವೆನ್ಯೂ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ರಬತ್</t>
+    <t xml:space="preserve">ಫ್ರೆಂಚ್ ಅವೆನ್ಯೂ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ರಬತ್</t>
   </si>
   <si>
     <t xml:space="preserve"> ಕೇಂದ್ರ ಹಾಸನ</t>
@@ -538,40 +535,37 @@
     <t xml:space="preserve">ಸೆಂಟರ್ ಮದೀನತ್ ಅಲ್ ಇರ್ಫಾನೆ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಅವೆನ್ಯೂ ಅಲ್ಲಲ್ ಅಲ್ ಫಾಸ್ಸಿ</t>
+    <t xml:space="preserve">ಅವೆನ್ಯೂ ಅಲ್ಲಲ್ ಅಲ್ ಫಾಸ್ಸಿ</t>
   </si>
   <si>
     <t xml:space="preserve"> ಸೆಂಟರ್ ಹೇ ರಿಯಾಡ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಅವೆನ್ಯೂ ಅಲ್ ಅರಾರ್</t>
+    <t xml:space="preserve">ಅವೆನ್ಯೂ ಅಲ್ ಅರಾರ್</t>
   </si>
   <si>
     <t xml:space="preserve"> ಸೆಂಟರ್ ಮದೀನಾ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಕಾನ್ಸುಲ್‌ಗಳ ಬೀದಿ</t>
+    <t xml:space="preserve">ಕಾನ್ಸುಲ್‌ಗಳ ಬೀದಿ</t>
   </si>
   <si>
     <t xml:space="preserve"> ಸೆಂಟರ್ ಯೂಸೌಫಿಯಾ</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಅವೆನ್ಯೂ ಔಜ್ಗುಯಿಟಾ</t>
+    <t xml:space="preserve">ಅವೆನ್ಯೂ ಔಜ್ಗುಯಿಟಾ</t>
   </si>
   <si>
     <t xml:space="preserve"> ಕೇಂದ್ರ ರಬತ್</t>
   </si>
   <si>
-    <t xml:space="preserve"> ಬೆನ್ ಮನ್ಸೂರ್</t>
-  </si>
-  <si>
     <t xml:space="preserve">hin</t>
   </si>
   <si>
     <t xml:space="preserve"> आभासी केंद्र</t>
   </si>
   <si>
-    <t xml:space="preserve"> आभासी पता 1</t>
+    <t xml:space="preserve">आभासी पता 1</t>
   </si>
   <si>
     <t xml:space="preserve">आभासी पता 2</t>
@@ -583,7 +577,7 @@
     <t xml:space="preserve"> सेंटर ए बेन मंसूर</t>
   </si>
   <si>
-    <t xml:space="preserve"> बेन मंसूर</t>
+    <t xml:space="preserve">बेन मंसूर</t>
   </si>
   <si>
     <t xml:space="preserve"> ग्रामीण नगर मनसराय</t>
@@ -592,34 +586,34 @@
     <t xml:space="preserve">रूट डी मौले बौसेलहैम</t>
   </si>
   <si>
-    <t xml:space="preserve"> डौर सबिह मेनसेरा</t>
+    <t xml:space="preserve">डौर सबिह मेनसेरा</t>
   </si>
   <si>
     <t xml:space="preserve">सूक खेमिस मोग्रेन</t>
   </si>
   <si>
-    <t xml:space="preserve"> मार्ग N1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> माइग्रेन</t>
+    <t xml:space="preserve">मार्ग N1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">माइग्रेन</t>
   </si>
   <si>
     <t xml:space="preserve">केंद्र असम</t>
   </si>
   <si>
-    <t xml:space="preserve"> 7 किमी टंगेर रोड</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> केनिट्रा</t>
+    <t xml:space="preserve">7 किमी टंगेर रोड</t>
+  </si>
+  <si>
+    <t xml:space="preserve">केनिट्रा</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र मेहदिया</t>
   </si>
   <si>
-    <t xml:space="preserve"> मेहदिया रोड अमरिया मेहदिया</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> मारोसी</t>
+    <t xml:space="preserve">मेहदिया रोड अमरिया मेहदिया</t>
+  </si>
+  <si>
+    <t xml:space="preserve">मारोसी</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र औलेड औजिहो</t>
@@ -628,73 +622,67 @@
     <t xml:space="preserve">ब्लॉक 1 G1 N113</t>
   </si>
   <si>
-    <t xml:space="preserve">केनिट्रा</t>
-  </si>
-  <si>
     <t xml:space="preserve"> केंद्र सिदी ताइबिक</t>
   </si>
   <si>
-    <t xml:space="preserve"> रबत रोड</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> सिदी ताइबि</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> मेरा देश</t>
+    <t xml:space="preserve">रबत रोड</t>
+  </si>
+  <si>
+    <t xml:space="preserve">सिदी ताइबि</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र सिदी अल्लाल ताज़िक</t>
   </si>
   <si>
-    <t xml:space="preserve"> राष्ट्रीय सड़क</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> अल्ला ताज़िक</t>
+    <t xml:space="preserve">राष्ट्रीय सड़क</t>
+  </si>
+  <si>
+    <t xml:space="preserve">अल्ला ताज़िक</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र Agdal</t>
   </si>
   <si>
-    <t xml:space="preserve"> फ्रेंच एवेन्यू</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> रबात</t>
+    <t xml:space="preserve">फ्रेंच एवेन्यू</t>
+  </si>
+  <si>
+    <t xml:space="preserve">रबात</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र हसन</t>
   </si>
   <si>
-    <t xml:space="preserve"> एवेन्यू अमीर मौले अब्देलाह</t>
+    <t xml:space="preserve">एवेन्यू अमीर मौले अब्देलाह</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र सूसी</t>
   </si>
   <si>
-    <t xml:space="preserve"> एवेन्यू मोहम्मद VI</t>
+    <t xml:space="preserve">एवेन्यू मोहम्मद VI</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र मदीनत अल इरफान</t>
   </si>
   <si>
-    <t xml:space="preserve"> एवेन्यू अल्लाल अल फसी</t>
+    <t xml:space="preserve">एवेन्यू अल्लाल अल फसी</t>
   </si>
   <si>
     <t xml:space="preserve">केंद्र हे Riad</t>
   </si>
   <si>
-    <t xml:space="preserve"> एवेन्यू अल अरारी</t>
+    <t xml:space="preserve">एवेन्यू अल अरारी</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र मदीना</t>
   </si>
   <si>
-    <t xml:space="preserve"> कौंसल की सड़क</t>
+    <t xml:space="preserve">कौंसल की सड़क</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र युसूफिया</t>
   </si>
   <si>
-    <t xml:space="preserve"> एवेन्यू औजगुइटा</t>
+    <t xml:space="preserve">एवेन्यू औजगुइटा</t>
   </si>
   <si>
     <t xml:space="preserve"> केंद्र रबातो</t>
@@ -712,7 +700,7 @@
     <t xml:space="preserve">மெய்நிகர் முகவரி 2</t>
   </si>
   <si>
-    <t xml:space="preserve"> என் நாடு</t>
+    <t xml:space="preserve">என் நாடு</t>
   </si>
   <si>
     <t xml:space="preserve">சென்டர் ஏ பென் மன்சூர்</t>
@@ -727,7 +715,7 @@
     <t xml:space="preserve">பாதை டி மௌலே பௌசல்ஹாம்</t>
   </si>
   <si>
-    <t xml:space="preserve"> பாதை N1</t>
+    <t xml:space="preserve">பாதை N1</t>
   </si>
   <si>
     <t xml:space="preserve">ஒற்றைத் தலைவலி</t>
@@ -739,7 +727,7 @@
     <t xml:space="preserve"> 7 கிமீ டேன்ஜியர் சாலை</t>
   </si>
   <si>
-    <t xml:space="preserve"> கெனிட்ரா </t>
+    <t xml:space="preserve">கெனிட்ரா </t>
   </si>
   <si>
     <t xml:space="preserve"> மையம் மெஹதியா</t>
@@ -748,7 +736,7 @@
     <t xml:space="preserve">மெஹ்தியா சாலை அம்ரியா மெஹதியா</t>
   </si>
   <si>
-    <t xml:space="preserve"> மரோக்</t>
+    <t xml:space="preserve">மரோக்</t>
   </si>
   <si>
     <t xml:space="preserve"> மையம் Ouled Oujih</t>
@@ -757,37 +745,34 @@
     <t xml:space="preserve">தொகுதி 1 G1 N113</t>
   </si>
   <si>
-    <t xml:space="preserve"> கெனிட்ரா</t>
+    <t xml:space="preserve">கெனிட்ரா</t>
   </si>
   <si>
     <t xml:space="preserve"> மையம் சிடி தைபி</t>
   </si>
   <si>
-    <t xml:space="preserve"> ரபாத் சாலை</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> சிடி தைபி</t>
-  </si>
-  <si>
-    <t xml:space="preserve">என் நாடு</t>
+    <t xml:space="preserve">ரபாத் சாலை</t>
+  </si>
+  <si>
+    <t xml:space="preserve">சிடி தைபி</t>
   </si>
   <si>
     <t xml:space="preserve">மையம் சிடி அல்லல் தாஜி</t>
   </si>
   <si>
-    <t xml:space="preserve"> தேசிய சாலை</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> அல்லா தாசி</t>
+    <t xml:space="preserve">தேசிய சாலை</t>
+  </si>
+  <si>
+    <t xml:space="preserve">அல்லா தாசி</t>
   </si>
   <si>
     <t xml:space="preserve"> மையம் அக்டல்</t>
   </si>
   <si>
-    <t xml:space="preserve"> பிரஞ்சு அவென்யூ</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> ரபாத்</t>
+    <t xml:space="preserve">பிரஞ்சு அவென்யூ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ரபாத்</t>
   </si>
   <si>
     <t xml:space="preserve"> மையம் ஹாசன்</t>
@@ -799,7 +784,7 @@
     <t xml:space="preserve"> மையம் Souissi</t>
   </si>
   <si>
-    <t xml:space="preserve"> அவென்யூ முகமது VI</t>
+    <t xml:space="preserve">அவென்யூ முகமது VI</t>
   </si>
   <si>
     <t xml:space="preserve">மதீனத் அல் இர்ஃபேன் மையம்</t>
@@ -817,19 +802,16 @@
     <t xml:space="preserve"> மதீனா மையம்</t>
   </si>
   <si>
-    <t xml:space="preserve"> தூதரகத்தின் தெரு</t>
+    <t xml:space="preserve">தூதரகத்தின் தெரு</t>
   </si>
   <si>
     <t xml:space="preserve"> மையம் யூசுஃபியா</t>
   </si>
   <si>
-    <t xml:space="preserve"> அவென்யூ Ouzguita</t>
+    <t xml:space="preserve">அவென்யூ Ouzguita</t>
   </si>
   <si>
     <t xml:space="preserve"> மையம் ரபாத்</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> பென் மன்சூர்</t>
   </si>
 </sst>
 </file>
@@ -973,7 +955,7 @@
   <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L86" activeCellId="0" sqref="L86"/>
+      <selection pane="topLeft" activeCell="F86" activeCellId="0" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4125,7 +4107,7 @@
         <v>160</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H43" s="5" t="n">
         <v>34.192861</v>
@@ -4187,19 +4169,19 @@
         <v>10008</v>
       </c>
       <c r="C44" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D44" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F44" s="5" t="s">
-        <v>164</v>
-      </c>
       <c r="G44" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H44" s="5" t="n">
         <v>34.522414</v>
@@ -4261,19 +4243,19 @@
         <v>10009</v>
       </c>
       <c r="C45" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E45" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D45" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="F45" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F45" s="5" t="s">
-        <v>167</v>
-      </c>
       <c r="G45" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H45" s="5" t="n">
         <v>33.998232</v>
@@ -4335,19 +4317,19 @@
         <v>10010</v>
       </c>
       <c r="C46" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="D46" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="F46" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H46" s="5" t="n">
         <v>34.017502</v>
@@ -4409,19 +4391,19 @@
         <v>10011</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H47" s="5" t="n">
         <v>33.986608</v>
@@ -4483,19 +4465,19 @@
         <v>10012</v>
       </c>
       <c r="C48" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D48" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="F48" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H48" s="5" t="n">
         <v>33.978103</v>
@@ -4557,19 +4539,19 @@
         <v>10013</v>
       </c>
       <c r="C49" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="D49" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>174</v>
-      </c>
       <c r="F49" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H49" s="5" t="n">
         <v>33.953931</v>
@@ -4631,19 +4613,19 @@
         <v>10014</v>
       </c>
       <c r="C50" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E50" s="5" t="s">
-        <v>176</v>
-      </c>
       <c r="F50" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H50" s="5" t="n">
         <v>34.027757</v>
@@ -4705,19 +4687,19 @@
         <v>10015</v>
       </c>
       <c r="C51" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>178</v>
-      </c>
       <c r="F51" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H51" s="5" t="n">
         <v>33.995612</v>
@@ -4779,7 +4761,7 @@
         <v>33333</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D52" s="5" t="s">
         <v>27</v>
@@ -4788,10 +4770,10 @@
         <v>44</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>180</v>
+        <v>143</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="H52" s="5" t="n">
         <v>33.52117</v>
@@ -4847,25 +4829,25 @@
     </row>
     <row r="53" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F53" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="D53" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="G53" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F53" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H53" s="5" t="n">
         <v>0</v>
@@ -4919,13 +4901,13 @@
     </row>
     <row r="54" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B54" s="1" t="n">
         <v>10001</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D54" s="5" t="s">
         <v>27</v>
@@ -4934,10 +4916,10 @@
         <v>44</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H54" s="5" t="n">
         <v>34.52117</v>
@@ -4993,25 +4975,25 @@
     </row>
     <row r="55" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B55" s="1" t="n">
         <v>10002</v>
       </c>
       <c r="C55" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="F55" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>190</v>
-      </c>
       <c r="G55" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H55" s="5" t="n">
         <v>34.360207</v>
@@ -5067,25 +5049,25 @@
     </row>
     <row r="56" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B56" s="1" t="n">
         <v>10003</v>
       </c>
       <c r="C56" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="D56" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>193</v>
-      </c>
       <c r="G56" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H56" s="5" t="n">
         <v>34.405692</v>
@@ -5141,25 +5123,25 @@
     </row>
     <row r="57" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B57" s="1" t="n">
         <v>10004</v>
       </c>
       <c r="C57" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F57" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D57" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F57" s="5" t="s">
-        <v>196</v>
-      </c>
       <c r="G57" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H57" s="5" t="n">
         <v>34.287879</v>
@@ -5215,25 +5197,25 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B58" s="1" t="n">
         <v>10005</v>
       </c>
       <c r="C58" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="G58" s="5" t="s">
         <v>197</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E58" s="5" t="s">
-        <v>198</v>
-      </c>
-      <c r="F58" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>199</v>
       </c>
       <c r="H58" s="5" t="n">
         <v>34.256414</v>
@@ -5289,25 +5271,25 @@
     </row>
     <row r="59" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B59" s="1" t="n">
         <v>10006</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D59" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H59" s="5" t="n">
         <v>34.262477</v>
@@ -5363,25 +5345,25 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B60" s="1" t="n">
         <v>10007</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D60" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H60" s="5" t="n">
         <v>34.192861</v>
@@ -5437,25 +5419,25 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B61" s="1" t="n">
         <v>10008</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D61" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H61" s="5" t="n">
         <v>34.522414</v>
@@ -5511,25 +5493,25 @@
     </row>
     <row r="62" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B62" s="1" t="n">
         <v>10009</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D62" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H62" s="5" t="n">
         <v>33.998232</v>
@@ -5585,25 +5567,25 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B63" s="1" t="n">
         <v>10010</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D63" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H63" s="5" t="n">
         <v>34.017502</v>
@@ -5659,25 +5641,25 @@
     </row>
     <row r="64" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B64" s="1" t="n">
         <v>10011</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="D64" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H64" s="5" t="n">
         <v>33.986608</v>
@@ -5733,25 +5715,25 @@
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B65" s="1" t="n">
         <v>10012</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D65" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H65" s="5" t="n">
         <v>33.978103</v>
@@ -5807,25 +5789,25 @@
     </row>
     <row r="66" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B66" s="1" t="n">
         <v>10013</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="D66" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H66" s="5" t="n">
         <v>33.953931</v>
@@ -5881,25 +5863,25 @@
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B67" s="1" t="n">
         <v>10014</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="D67" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H67" s="5" t="n">
         <v>34.027757</v>
@@ -5955,25 +5937,25 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B68" s="1" t="n">
         <v>10015</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="D68" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H68" s="5" t="n">
         <v>33.995612</v>
@@ -6029,13 +6011,13 @@
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B69" s="1" t="n">
         <v>33333</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D69" s="5" t="s">
         <v>27</v>
@@ -6044,10 +6026,10 @@
         <v>44</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="H69" s="5" t="n">
         <v>33.52117</v>
@@ -6103,25 +6085,25 @@
     </row>
     <row r="70" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D70" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H70" s="5" t="n">
         <v>0</v>
@@ -6175,13 +6157,13 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B71" s="1" t="n">
         <v>10001</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D71" s="5" t="s">
         <v>27</v>
@@ -6190,10 +6172,10 @@
         <v>44</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H71" s="5" t="n">
         <v>34.52117</v>
@@ -6249,25 +6231,25 @@
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B72" s="1" t="n">
         <v>10002</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="D72" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>56</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H72" s="5" t="n">
         <v>34.360207</v>
@@ -6323,7 +6305,7 @@
     </row>
     <row r="73" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B73" s="1" t="n">
         <v>10003</v>
@@ -6335,13 +6317,13 @@
         <v>27</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H73" s="5" t="n">
         <v>34.405692</v>
@@ -6397,25 +6379,25 @@
     </row>
     <row r="74" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B74" s="1" t="n">
         <v>10004</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D74" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="H74" s="5" t="n">
         <v>34.287879</v>
@@ -6471,25 +6453,25 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B75" s="1" t="n">
         <v>10005</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H75" s="5" t="n">
         <v>34.256414</v>
@@ -6545,25 +6527,25 @@
     </row>
     <row r="76" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B76" s="1" t="n">
         <v>10006</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H76" s="5" t="n">
         <v>34.262477</v>
@@ -6619,25 +6601,25 @@
     </row>
     <row r="77" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B77" s="1" t="n">
         <v>10007</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H77" s="5" t="n">
         <v>34.192861</v>
@@ -6693,25 +6675,25 @@
     </row>
     <row r="78" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B78" s="1" t="n">
         <v>10008</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G78" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H78" s="5" t="n">
         <v>34.522414</v>
@@ -6767,25 +6749,25 @@
     </row>
     <row r="79" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B79" s="1" t="n">
         <v>10009</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="D79" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G79" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H79" s="5" t="n">
         <v>33.998232</v>
@@ -6841,25 +6823,25 @@
     </row>
     <row r="80" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B80" s="1" t="n">
         <v>10010</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H80" s="5" t="n">
         <v>34.017502</v>
@@ -6915,25 +6897,25 @@
     </row>
     <row r="81" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B81" s="1" t="n">
         <v>10011</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D81" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H81" s="5" t="n">
         <v>33.986608</v>
@@ -6989,25 +6971,25 @@
     </row>
     <row r="82" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B82" s="1" t="n">
         <v>10012</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D82" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G82" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H82" s="5" t="n">
         <v>33.978103</v>
@@ -7063,25 +7045,25 @@
     </row>
     <row r="83" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B83" s="1" t="n">
         <v>10013</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="D83" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H83" s="5" t="n">
         <v>33.953931</v>
@@ -7137,25 +7119,25 @@
     </row>
     <row r="84" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B84" s="1" t="n">
         <v>10014</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="D84" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G84" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H84" s="5" t="n">
         <v>34.027757</v>
@@ -7211,25 +7193,25 @@
     </row>
     <row r="85" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B85" s="1" t="n">
         <v>10015</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D85" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H85" s="5" t="n">
         <v>33.995612</v>
@@ -7285,13 +7267,13 @@
     </row>
     <row r="86" customFormat="false" ht="16.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B86" s="1" t="n">
         <v>33333</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>27</v>
@@ -7300,10 +7282,10 @@
         <v>44</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>269</v>
+        <v>228</v>
       </c>
       <c r="G86" s="7" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="H86" s="5" t="n">
         <v>33.52117</v>

--- a/mosip_master/xlsx/registration_center_h.xlsx
+++ b/mosip_master/xlsx/registration_center_h.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\CIV\CODE\mosip-data\mosip_master\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MicroTech\IdeaProjects\mosip-data-mec\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B13DF9F2-E644-4032-87F1-E375E52E736F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BAD8FC-5F9C-4C74-A460-E89EA6562986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>lang_code</t>
   </si>
@@ -197,6 +197,9 @@
   </si>
   <si>
     <t>CIV</t>
+  </si>
+  <si>
+    <t>now()</t>
   </si>
 </sst>
 </file>
@@ -612,38 +615,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X2" sqref="X2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.26953125" customWidth="1"/>
-    <col min="2" max="2" width="3.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7265625" customWidth="1"/>
-    <col min="4" max="4" width="13.08984375" customWidth="1"/>
-    <col min="5" max="5" width="29.1796875" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
-    <col min="7" max="7" width="11.1796875" customWidth="1"/>
-    <col min="8" max="8" width="8.6328125" customWidth="1"/>
-    <col min="9" max="9" width="10.08984375" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.54296875" customWidth="1"/>
-    <col min="12" max="12" width="17.54296875" customWidth="1"/>
-    <col min="13" max="13" width="17.90625" customWidth="1"/>
-    <col min="14" max="14" width="14.90625" customWidth="1"/>
-    <col min="15" max="15" width="22.90625" customWidth="1"/>
-    <col min="16" max="16" width="17.1796875" customWidth="1"/>
-    <col min="17" max="18" width="16.36328125" customWidth="1"/>
-    <col min="19" max="19" width="15.6328125" customWidth="1"/>
+    <col min="1" max="1" width="10.21875" customWidth="1"/>
+    <col min="2" max="2" width="3.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.109375" customWidth="1"/>
+    <col min="5" max="5" width="29.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.21875" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="9" max="9" width="10.109375" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="2" customWidth="1"/>
+    <col min="11" max="11" width="14.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="17.88671875" customWidth="1"/>
+    <col min="14" max="14" width="14.88671875" customWidth="1"/>
+    <col min="15" max="15" width="22.88671875" customWidth="1"/>
+    <col min="16" max="16" width="17.21875" customWidth="1"/>
+    <col min="17" max="18" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="15.6640625" customWidth="1"/>
     <col min="20" max="20" width="40" customWidth="1"/>
-    <col min="21" max="21" width="16.54296875" customWidth="1"/>
-    <col min="22" max="22" width="10.81640625" customWidth="1"/>
+    <col min="21" max="21" width="16.5546875" customWidth="1"/>
+    <col min="22" max="22" width="10.77734375" customWidth="1"/>
     <col min="23" max="23" width="9" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.90625" customWidth="1"/>
+    <col min="24" max="24" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -717,7 +720,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:24" s="5" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="5" t="s">
         <v>31</v>
       </c>
@@ -786,6 +789,9 @@
       </c>
       <c r="W2" s="6" t="s">
         <v>30</v>
+      </c>
+      <c r="X2" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
